--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/10/seed3/result_data_RandomForest.xlsx
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.977999999999991</v>
+        <v>-8.124499999999994</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.596699999999997</v>
+        <v>-8.729999999999995</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.955</v>
+        <v>-12.2878</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.47059999999997</v>
+        <v>-20.48899999999997</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.59480000000003</v>
+        <v>-22.52250000000004</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>5.893899999999999</v>
+        <v>5.921699999999996</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.53030000000003</v>
+        <v>-22.45250000000003</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.6413</v>
+        <v>-14.61409999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
